--- a/biology/Botanique/Bambusoideae/Bambusoideae.xlsx
+++ b/biology/Botanique/Bambusoideae/Bambusoideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bambusoideae sont une importante sous-famille rattachée à la famille des Poaceae (Graminées), qui regroupe plus de 1 400 espèces  de plantes monocotylédones, connues sous le nom de « bambous ». Les espèces sont naturellement présentes dans les régions tropicales, subtropicales et tempérées de tous les continents à l'exception de l'Europe (où des espèces ont été cependant introduites) et de l'Antarctique.
 Les Bambusoideae constituent un groupe frère des Pooideae.
@@ -512,10 +524,12 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bambusoideae sont  subdivisées en trois tribus :  Bambuseae (bambous ligneux tropicaux), Arundinarieae (bambous ligneux tempérés) et Olyreae (bambous herbacés). 
-Les deux premières comprennent des espèces très diversifiées mais qui partagent quelques caractéristiques communes : chaumes fortement lignifiés, feuilles de chaume spécialisées, ramifications végétatives complexes, ligules externes sur les feuilles de feuillage, fleurs bisexuées et monocarpie grégaire, tandis que les espèces de la troisième, d'origine presque exclusivement américaine, se caractérisent par des tiges plus courtes et plus faiblement lignifiées, une ramification végétative moins développée, des fleurs unisexuées et une floraison annuelle ou saisonnière[1].
+Les deux premières comprennent des espèces très diversifiées mais qui partagent quelques caractéristiques communes : chaumes fortement lignifiés, feuilles de chaume spécialisées, ramifications végétatives complexes, ligules externes sur les feuilles de feuillage, fleurs bisexuées et monocarpie grégaire, tandis que les espèces de la troisième, d'origine presque exclusivement américaine, se caractérisent par des tiges plus courtes et plus faiblement lignifiées, une ramification végétative moins développée, des fleurs unisexuées et une floraison annuelle ou saisonnière.
 </t>
         </is>
       </c>
@@ -544,18 +558,20 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bambusoideae ont une aire de répartition du type pan-tropicale qui s'étend sur tous les continents, à l'exception de l'Europe et de l'Antarctique.
-La richesse en espèce est cependant concentrée dans deux zones géographiques : l'Asie de l'Est (Chine, Inde, Japon, Birmanie, Malaisie) et l'Amérique du Sud (Brésil, Venezuela, Colombie)[2].
-La plupart des espèces de bambous sont originaires de régions à climat tropical chaud et humide et tempéré chaud[3].
-On rencontre cependant diverses espèces dans des climats variés, allant des régions tropicales chaudes à des régions montagneuses plus fraîches. Dans la région Asie-Pacifique, les bambous sont présents dans toute l'Asie orientale depuis l'île de Sakhaline à 50° de latitude nord[4] jusqu'au nord de l'Australie vers le sud et l'Inde occidentale et l'Himalaya vers l'ouest.
-La Chine, le Japon, la Corée, l'Inde et l'Australie ont plusieurs populations endémiques[5]
-On en trouve aussi quelques espèces en Afrique subsaharienne, confinées aux zones tropicales depuis le sud du Sénégal jusqu'au sud du Mozambique et à Madagascar vers le sud[6].
-En Amérique, les bambous ont une aire de répartition naturelle allant des forêts de hêtres du Chili central et du sud de l'Argentine, à 47° de latitude sud, jusqu'au Sud-Est des États-Unis vers le nord, en passant par les forêts tropicales d'Amérique du Sud et les Andes, jusqu'à près de 4 300 mètres d'altitude en Équateur. Les bambous sont également indigènes en Amérique centrale et au Mexique[7].
-On ne connaît aucune espèce de bambous indigène au Canada et en Europe[8].
+La richesse en espèce est cependant concentrée dans deux zones géographiques : l'Asie de l'Est (Chine, Inde, Japon, Birmanie, Malaisie) et l'Amérique du Sud (Brésil, Venezuela, Colombie).
+La plupart des espèces de bambous sont originaires de régions à climat tropical chaud et humide et tempéré chaud.
+On rencontre cependant diverses espèces dans des climats variés, allant des régions tropicales chaudes à des régions montagneuses plus fraîches. Dans la région Asie-Pacifique, les bambous sont présents dans toute l'Asie orientale depuis l'île de Sakhaline à 50° de latitude nord jusqu'au nord de l'Australie vers le sud et l'Inde occidentale et l'Himalaya vers l'ouest.
+La Chine, le Japon, la Corée, l'Inde et l'Australie ont plusieurs populations endémiques
+On en trouve aussi quelques espèces en Afrique subsaharienne, confinées aux zones tropicales depuis le sud du Sénégal jusqu'au sud du Mozambique et à Madagascar vers le sud.
+En Amérique, les bambous ont une aire de répartition naturelle allant des forêts de hêtres du Chili central et du sud de l'Argentine, à 47° de latitude sud, jusqu'au Sud-Est des États-Unis vers le nord, en passant par les forêts tropicales d'Amérique du Sud et les Andes, jusqu'à près de 4 300 mètres d'altitude en Équateur. Les bambous sont également indigènes en Amérique centrale et au Mexique.
+On ne connaît aucune espèce de bambous indigène au Canada et en Europe.
 Beaucoup d'espèces sont cependant cultivées en dehors de ces aires naturelles, comme plantes ornementales horticoles, en particulier dans la plus grande partie de l'Europe et des États-Unis.
-Des essais de culture commerciale de bambous ont été réalisés dans la région des Grands Lacs de l'Afrique orientale, en particulier au Rwanda[9].
+Des essais de culture commerciale de bambous ont été réalisés dans la région des Grands Lacs de l'Afrique orientale, en particulier au Rwanda.
 </t>
         </is>
       </c>
@@ -584,9 +600,11 @@
           <t>Liste des tribus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (1 avr. 2013)[10] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (1 avr. 2013) :
 tribu Arundinarieae
 tribu Bambuseae
 tribu Olyreae</t>
@@ -618,6 +636,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -645,8 +665,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sous-tribu des Arthrostylidiinae
-Actinocladum
+          <t>Sous-tribu des Arthrostylidiinae</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Actinocladum
 Alvimia
 Apoclada
 Arthrostylidium
@@ -658,9 +683,43 @@
 Glaziophyton
 Merostachys
 Myriocladus
-Rhipidocladum
-Sous-tribu des Bambusinae
-Bambusa (Dendrocalamopsis)
+Rhipidocladum</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bambusoideae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bambusoideae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Tribu des Bambuseae</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Bambusinae</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bambusa (Dendrocalamopsis)
 Bonia (Monocladus)
 Dendrocalamus ([klemachloa, oreobambos, oxynanthera, sinocalamus et Dendrocalamus giganteus)
 Dinochloa
@@ -670,19 +729,121 @@
 Klemachloa
 Melocalamus
 Sphaerobambos
-Thyrostachys
-Sous-tribu des Chusqueinae
-Cette sous-tribu se rencontre dans zone néotropicale, le plus souvent en haute altitude:
+Thyrostachys</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bambusoideae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bambusoideae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Tribu des Bambuseae</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Chusqueinae</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cette sous-tribu se rencontre dans zone néotropicale, le plus souvent en haute altitude:
 Chusquea
-Neurolepis
-Sous-tribu des Guaduinae
-Criciúma
+Neurolepis</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bambusoideae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bambusoideae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tribu des Bambuseae</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Guaduinae</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Criciúma
 Eremocaulon
 Guadua
 Olmeca
-Otatea
-Sous-tribu des Melocanninae
-Cephalostachyum
+Otatea</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bambusoideae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bambusoideae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Tribu des Bambuseae</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Melocanninae</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cephalostachyum
 Davidsea
 Dendrochloa
 Melocanna
@@ -690,16 +851,84 @@
 Ochlandra
 Pseudostachyum
 Schizostachyum
-Teinostachyum
-Sous-tribu des Nastinae (Hickelinae)
-Decaryochloa
+Teinostachyum</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bambusoideae</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bambusoideae</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Tribu des Bambuseae</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Nastinae (Hickelinae)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Decaryochloa
 Greslania
 Hickelia
 Hitchcockella (?)
 Nastus
-Perrierbambus (?)
-Sous-tribu des Thamnocalaminae
-Ampelocalamus
+Perrierbambus (?)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bambusoideae</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bambusoideae</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Tribu des Bambuseae</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Thamnocalaminae</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Ampelocalamus
 Borinda
 Chimonocalamus
 Drepanostachyum
@@ -707,11 +936,79 @@
 Himalayacalamus
 Sinarundinaria
 Thamnocalamus
-Yushania
-Sous-tribu des Racemobambosinae
-Racemobambos (Neomicrocalamus, Vietnamosasa)
-Sous-tribu des Shibataeinae
-Chimonobambusa
+Yushania</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bambusoideae</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bambusoideae</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Tribu des Bambuseae</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Racemobambosinae</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Racemobambos (Neomicrocalamus, Vietnamosasa)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bambusoideae</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bambusoideae</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Tribu des Bambuseae</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Shibataeinae</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Chimonobambusa
 Indosasa
 Hibanobambusa
 Indosasa
@@ -724,61 +1021,65 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Bambusoideae</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bambusoideae</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bambusoideae</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bambusoideae</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Tribu des Olyreae</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Olyra</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Bambusoideae</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bambusoideae</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bambusoideae</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bambusoideae</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Tribu des Arundinariinae</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Acidosasa
 Arundinaria
